--- a/i_codebooks/D5_flowchart_exclusion_criteria.xlsx
+++ b/i_codebooks/D5_flowchart_exclusion_criteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\Pipeline_template_CoMaSy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB5D1AA-2B82-4AC4-89FD-D46AE41ABE03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54378FD-8617-48F3-A608-F1EB23E5FF6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
-    <t>medatata_name</t>
-  </si>
-  <si>
     <t>metadata_content</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>D5_flowchart_exclusion_criteria</t>
+  </si>
+  <si>
+    <t>metadata_name</t>
   </si>
 </sst>
 </file>
@@ -693,9 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -705,59 +703,59 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -786,37 +784,37 @@
   <sheetData>
     <row r="1" spans="1:39" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
@@ -849,14 +847,14 @@
     </row>
     <row r="2" spans="1:39" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="19"/>
@@ -896,10 +894,10 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -924,85 +922,85 @@
   <sheetData>
     <row r="1" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1031,34 +1029,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1610,15 +1608,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
@@ -1628,6 +1617,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1650,14 +1648,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1666,4 +1656,12 @@
     <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>